--- a/first_pass/calc_tseries.xlsx
+++ b/first_pass/calc_tseries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojos/Documents/GitHub/WAWex/first_pass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D29099-3132-6846-A320-C79C79EA7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884F70C-628A-4A43-BF96-B87C207C2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="17260" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
